--- a/NaverDelivery.xlsx
+++ b/NaverDelivery.xlsx
@@ -19,11 +19,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>처리일시</t>
   </si>
   <si>
+    <t>현재위치</t>
+  </si>
+  <si>
+    <t>배송상태</t>
+  </si>
+  <si>
     <t>2019.07.23.18:08:01</t>
   </si>
   <si>
@@ -54,9 +60,6 @@
     <t>2019.07.20.14:33:00</t>
   </si>
   <si>
-    <t>현재위치</t>
-  </si>
-  <si>
     <t>광주남Sub</t>
   </si>
   <si>
@@ -72,9 +75,6 @@
     <t>인천중직영(서원진)</t>
   </si>
   <si>
-    <t>배송상태</t>
-  </si>
-  <si>
     <t>배달완료</t>
   </si>
   <si>
@@ -91,12 +91,6 @@
   </si>
   <si>
     <t>집화처리</t>
-  </si>
-  <si>
-    <t>(배달예정시간</t>
-  </si>
-  <si>
-    <t>:17∼19시)</t>
   </si>
 </sst>
 </file>
@@ -471,208 +465,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
         <v>23</v>
       </c>
     </row>
